--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED147CE-4CC9-499F-8EA0-6C72FBB3E865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356106FD-6F5D-45CA-9600-4F6A1E84E70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6900" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -148,6 +148,26 @@
   </si>
   <si>
     <t>Good</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30pm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected realm-java as our team project</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We went through a lot of popular open-source Android library on GitHub, like okhttp, retrofit, gson. Those projects are either too small or too huge to work on. Finally we chose realm whose LOC is approximately 100k.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>After fastjson was disapproved we had to decide our new project for the team</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,9 +372,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -382,22 +399,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -711,11 +725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" customWidth="1"/>
@@ -723,27 +737,27 @@
     <col min="6" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -752,7 +766,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,7 +779,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,7 +792,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,7 +805,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -800,7 +814,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -809,7 +823,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -832,94 +846,108 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>20200109</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>20200116</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="173.05" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>20200116</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="110.15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>20200119</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -928,7 +956,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -937,7 +965,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -946,7 +974,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -955,7 +983,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -964,7 +992,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -973,7 +1001,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -982,7 +1010,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -991,7 +1019,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1000,7 +1028,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1009,7 +1037,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1018,7 +1046,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1027,7 +1055,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1036,7 +1064,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1045,7 +1073,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1054,7 +1082,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1063,7 +1091,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1072,7 +1100,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1081,7 +1109,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1090,7 +1118,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1099,7 +1127,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1108,7 +1136,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1117,7 +1145,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1126,7 +1154,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1135,7 +1163,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1144,7 +1172,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1153,7 +1181,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1162,7 +1190,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1171,7 +1199,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1180,7 +1208,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1189,7 +1217,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1198,7 +1226,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1207,7 +1235,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1216,7 +1244,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1225,7 +1253,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1234,7 +1262,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1243,7 +1271,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1252,7 +1280,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1261,7 +1289,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1270,7 +1298,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1279,7 +1307,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1288,7 +1316,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1297,7 +1325,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1306,7 +1334,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1315,7 +1343,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1324,7 +1352,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1333,7 +1361,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1342,7 +1370,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1351,7 +1379,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1360,7 +1388,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1369,7 +1397,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1378,7 +1406,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1387,7 +1415,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1396,7 +1424,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1405,7 +1433,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1414,7 +1442,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1423,7 +1451,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1432,7 +1460,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1441,7 +1469,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1450,7 +1478,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1459,7 +1487,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1468,7 +1496,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1477,7 +1505,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1486,7 +1514,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1495,7 +1523,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1504,7 +1532,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1513,7 +1541,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1522,7 +1550,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1531,7 +1559,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1540,7 +1568,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1549,7 +1577,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1558,7 +1586,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1567,7 +1595,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1576,7 +1604,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1585,7 +1613,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1594,7 +1622,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1603,7 +1631,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1612,7 +1640,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1621,7 +1649,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1630,7 +1658,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1639,7 +1667,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1648,7 +1676,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1657,7 +1685,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1666,7 +1694,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1675,7 +1703,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1684,7 +1712,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1693,7 +1721,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1702,7 +1730,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -1711,7 +1739,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -1720,7 +1748,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -1729,7 +1757,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -1738,7 +1766,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -1747,7 +1775,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -1756,7 +1784,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -1765,7 +1793,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -1774,7 +1802,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -1783,7 +1811,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -1792,7 +1820,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -1801,7 +1829,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -1810,7 +1838,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -1819,7 +1847,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -1828,7 +1856,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -1837,7 +1865,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -1846,7 +1874,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -1855,7 +1883,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -1864,7 +1892,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -1873,7 +1901,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -1882,7 +1910,7 @@
       <c r="F121" s="7"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -1891,7 +1919,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356106FD-6F5D-45CA-9600-4F6A1E84E70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8386EADB-55AB-415C-AD8C-96134A048DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -168,6 +168,31 @@
   </si>
   <si>
     <t>Tired</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8pm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish the pacman homework.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished the pacman homework using IntelliJ IDEA and a markdown file.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. IntelliJ IDEA is a powerful IDE for writing and reading code. Its 'Find Usages' function has played an important role in examining and understanding the code.
+2. Markdown is a very useful format for writing. It is organized and elegant, comes with simple syntax.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +299,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -343,7 +393,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,29 +422,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -404,6 +436,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -725,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -738,24 +791,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -824,128 +877,142 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>20200109</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>20200116</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="173.05" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="173.05" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>20200116</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="110.15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="110.15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>20200119</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="125.85" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>20200121</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3F36F-9A1C-40E7-9A06-4E45CFAD8591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6D76-E926-427C-BC59-090C00564AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7248" yWindow="744" windowWidth="23040" windowHeight="6900" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -308,6 +307,50 @@
     <t>A good UML class diagram may help us better understand the project. Here we adopted a top-bottom method to visualize our class diagram which made it easy to read.
 It was interesting to know that someone named their variables with the terms from Lord of Rings
 Also it is necessary to learn how to use Maven or Gradle. Our team should read more official documentations.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-9pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zihua</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decide features for homework 2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because we cannot duplicate the features that we have done in homework 1, it took a long time to decide our goals.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We decided one feature which is "Adding more query methods".</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not so good</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10am-2pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zihua, Wenchia</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decide anther feature and finish writing our report.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We decided another one feature which is "Adding more encryption methods". The first feature is easy to deal with. But the second one was involved with some C++ native functions which were hard to understand. But we did our best.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because Wenchia had an important interview this morning so we postponed our group activity. We worked hard together and finished the homework in time.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -843,9 +886,9 @@
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="2820" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="A1:XFD9"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1196,23 +1239,51 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20200204</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20200206</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6D76-E926-427C-BC59-090C00564AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD847BA-BB36-4681-A386-B3384135841C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="744" windowWidth="23040" windowHeight="6900" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -351,6 +351,28 @@
   </si>
   <si>
     <t>Because Wenchia had an important interview this morning so we postponed our group activity. We worked hard together and finished the homework in time.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Kaj, Christopher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Revise what we learned last week;
+2. Have some basic concepts of the upcoming midterm exam;
+3. Learn some more principles of reading code;
+4. Learn from Christopher.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 more principles learned:
+1. Be skeptical;
+2. Simulate continually;
+3. Draw examples alongside their diagrams.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The midterm seems hard so I better get prepared. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +907,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A20" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="A1:XFD9"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1285,14 +1307,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20200206</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD847BA-BB36-4681-A386-B3384135841C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798F24B-B826-454A-9761-E52524C7DBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="744" windowWidth="23040" windowHeight="6900" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -373,6 +373,59 @@
   </si>
   <si>
     <t xml:space="preserve">The midterm seems hard so I better get prepared. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Midterm;
+2. Learn more KEPs;
+3. Learn about Stakeholders.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 KEPs learned:
+1. Prioritize Stakeholders;
+2. Move along levels of abstraction;
+3. Do something else.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>The exam has a theoretical part and a pratical part. I think the theoretical part was not difficult if you have gone through all the slides and memorized some key concepts. However, the practical part of analyzing the pacman code seemed tricky because the question might have different interpretations. In the first question we were asked to use SimpleUML to draw a diagram of classes DIRECTLY related to the Game class and the SinglePlayerGame class without writing fields and constructors (what about methods?). Here the word DIRECTLY did not have a clear definition. In the next question we had to purpose some beacons, which also varied from person to person. So I was confused if I really understood what the questions wanted.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:00-3:20pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaj, Wenchia</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To discuss what we can do to improve our report for homework 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00am</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We learned that the features picked by us in the report were not essential in the project. And we were asked to what was inside the realm-java and figure out was it really just a wrapper or something more.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To report our discovery to Kaj and see what we can do</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was very frustrating to know why our homework got such a low score. We even thought about switching to different projects but knew that was not likely to happen. So instead we had to dig into realm-core written in C++, making the whole process more challenging. We might not be on the right track of searching essential features because they are not even implemented in realm-java.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We still cannot confirm whether realm-java is only a wrapper or something more. But we received suggestions from Kaj that we should investigate what realm-java provides differently from the other databases like SQLite. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We thought we should know how to use realm-java in real projects first, then try to understand what makes realm-java stands out among all these database libraries. If it is just nothing new, then we will have to research essential features like querying in realm-core.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -907,10 +960,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A20" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="A1:XFD9"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1330,32 +1383,74 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="399.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20200213</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="232.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20200218</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20200219</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798F24B-B826-454A-9761-E52524C7DBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C6CA4-2754-4798-ABC9-045FA5710641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -426,6 +426,73 @@
   </si>
   <si>
     <t>We thought we should know how to use realm-java in real projects first, then try to understand what makes realm-java stands out among all these database libraries. If it is just nothing new, then we will have to research essential features like querying in realm-core.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-11pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenchia, Zihua, Craig</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We read official documentations from Realm and tried to understand it on the level of the whole Realm ecosystem.
+Also, we had discussed with our new friend Craig about realm-core. He shared his ideas about how he would implement a database and verified his ideas along with the source code files located in realm-core project.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We cannot treat realm-java as simple as an individual project but a part of the Realm project. Realm-core is the base that all the Realm SDKs rely on. 
+If we are going to know essential features like how the database allocates the space on a disk, or how the query engine optimizes the query statement, we will have to look into those C++ source code. 
+As for the realm-java itself, the most essential features of it are providing APIs for developers and connecting/binding the realm-core. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. To revise our homework 2 report;
+2. Discuss realm-core with Craig, a MCS student who is good at C++;
+3. Start writing report for homework 3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish writing homework 3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussed our progress and compiled materials into our report. Submitted homework through GitHub.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I gave a lot of thought on what makes this system unique. As a database, it is not easy to stand out because there are so many competitors. In our case, Realm states that it is not relying on any other database products, but completely being built from scratch for mobile devices. Also it is cross-platform, easy-to-use, and fast. But these do not necessarily make it unique. These qualities must be considered with the fact that it is a novel database without dependencies.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Kaj, 2 guests</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Learn more KEPs;
+2. Learn about Architecture and Social Context;
+3. Learn from guests.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 KEPs learned:
+1. Know how things work;
+2. Address knowledge deficiencies;
+3. Design elegant attractions.
+Also tried to recover architecture from existing code by doing the jpacman exercise.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was interesting to see how different group handled the jpacman exercises. Most groups adopted the top-bottom method with basic assumption that the game was MVC architecture, then grouping the packages into layers respectively. It was impressive that Andre did it another way, starting from the UML class diagram, and then grouped the classes by dragging. After removing unnecessary arrows it gave us a clearer picture. So I think both of the methods can achieve the goal. But the correctness of their outcomes still need further confirmation.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not bad</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -960,18 +1027,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A24" activePane="bottomLeft"/>
-      <selection activeCell="H1" sqref="A1:XFD9"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A27" activePane="bottomLeft"/>
+      <selection sqref="A1:G2"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="34.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="34.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1452,32 +1522,74 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20200219</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>20200220</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="156" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>20200220</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joxon\Documents\_Repos\swe265p-reveng\W2020\diaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Repos\swe265p-reveng\swe265p-w2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C6CA4-2754-4798-ABC9-045FA5710641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC1E86E-246B-4501-AF1A-D9DBCC45F762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -467,10 +467,6 @@
   </si>
   <si>
     <t>I gave a lot of thought on what makes this system unique. As a database, it is not easy to stand out because there are so many competitors. In our case, Realm states that it is not relying on any other database products, but completely being built from scratch for mobile devices. Also it is cross-platform, easy-to-use, and fast. But these do not necessarily make it unique. These qualities must be considered with the fact that it is a novel database without dependencies.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andre, Kaj, 2 guests</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +489,62 @@
   </si>
   <si>
     <t>Not bad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Kaj, Sara and Omar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try to understand some basic logic inside realm-core</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read code for a few hours but felt like nothing useful learned.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>We felt very tired reading C++ code for a database. First we thought the documents might be helpful, but in fact they did not help too much in finishing our report because there was a huge gap between the code and documents. The real challenges here also lie in unfamiliarity with C++ syntax, absence of C++ development tools, and above all, the uncertainty of database operation logic.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frustrated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11am-9pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resubmit homework 2 before deadline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resubmitted homework 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline was closing and we were very worried. We tried to ask ourselves questions and break features into smaller ones like this:
+How to construct a query (Conditions + Actions)
+How the query is processed (Read (Select))
+How to read data from disk to memory (deserialize?)
+How to read/search from memory
+How to index the records (BPTree?)
+How Realm allocates disk space for data
+How to sync memory and disk (LiveObject?)
+How to write back to disk (serialize?)
+How Realm exposed its APIs to SDKs?
+How to support Unicode?
+How to support different data types? (Array?)
+After that, we were still struggling with what could be essential features. Finally we had no choice but selected "Table" and "Query" as our features, which could be essential but very complicated. We tried to find related classes as many as possible to explain how those parts interacted with each other. But we ran out of time and did not do well in explaining all functionalities. The report was not satisfactory.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very tired</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -709,11 +761,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,7 +781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1028,12 +1080,12 @@
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A27" activePane="bottomLeft"/>
+      <pane ySplit="2819" topLeftCell="A26" activePane="bottomLeft"/>
       <selection sqref="A1:G2"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" customWidth="1"/>
@@ -1045,7 +1097,7 @@
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1108,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1065,7 +1117,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1074,7 +1126,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1139,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1152,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1165,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1122,7 +1174,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1131,7 +1183,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20200109</v>
       </c>
@@ -1177,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="78.650000000000006" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20200116</v>
       </c>
@@ -1223,7 +1275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="109.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="62.95" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20200119</v>
       </c>
@@ -1269,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="312.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="313" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20200124</v>
       </c>
@@ -1292,7 +1344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="145.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>20200128</v>
       </c>
@@ -1338,7 +1390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="157.35" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20200130</v>
       </c>
@@ -1384,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="60.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20200204</v>
       </c>
@@ -1407,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="94.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20200206</v>
       </c>
@@ -1430,7 +1482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="101.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20200206</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="399.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="399.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20200213</v>
       </c>
@@ -1499,7 +1551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20200219</v>
       </c>
@@ -1522,7 +1574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="188.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20200219</v>
       </c>
@@ -1568,7 +1620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="156" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="157.35" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>20200220</v>
       </c>
@@ -1576,40 +1628,68 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="128.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>20200221</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="366.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>20200222</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1618,7 +1698,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1627,7 +1707,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1636,7 +1716,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1645,7 +1725,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1654,7 +1734,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1663,7 +1743,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1672,7 +1752,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1681,7 +1761,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1690,7 +1770,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1699,7 +1779,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1708,7 +1788,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1717,7 +1797,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1726,7 +1806,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1735,7 +1815,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1744,7 +1824,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1753,7 +1833,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1762,7 +1842,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1771,7 +1851,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1780,7 +1860,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1789,7 +1869,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1798,7 +1878,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1807,7 +1887,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1816,7 +1896,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1825,7 +1905,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1834,7 +1914,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1843,7 +1923,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1852,7 +1932,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1861,7 +1941,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1870,7 +1950,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1879,7 +1959,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1888,7 +1968,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1897,7 +1977,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1906,7 +1986,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1915,7 +1995,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1924,7 +2004,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1933,7 +2013,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1942,7 +2022,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1951,7 +2031,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1960,7 +2040,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1969,7 +2049,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1978,7 +2058,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1987,7 +2067,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1996,7 +2076,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2005,7 +2085,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2014,7 +2094,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2023,7 +2103,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2032,7 +2112,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2041,7 +2121,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2050,7 +2130,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2059,7 +2139,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2068,7 +2148,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2077,7 +2157,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2086,7 +2166,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2095,7 +2175,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2104,7 +2184,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2113,7 +2193,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2122,7 +2202,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2131,7 +2211,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2140,7 +2220,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2149,7 +2229,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2158,7 +2238,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2167,7 +2247,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2176,7 +2256,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2185,7 +2265,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2194,7 +2274,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2203,7 +2283,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2212,7 +2292,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2221,7 +2301,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2230,7 +2310,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2239,7 +2319,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2248,7 +2328,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2257,7 +2337,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2266,7 +2346,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2275,7 +2355,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2284,7 +2364,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2293,7 +2373,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2302,7 +2382,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2311,7 +2391,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2320,7 +2400,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2329,7 +2409,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2338,7 +2418,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2347,7 +2427,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2356,7 +2436,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2365,7 +2445,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2374,7 +2454,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -2383,7 +2463,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -2392,7 +2472,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -2401,7 +2481,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -2410,7 +2490,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -2419,7 +2499,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -2428,7 +2508,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -2437,7 +2517,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>

--- a/diaries/diary-junxian-chen.xlsx
+++ b/diaries/diary-junxian-chen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Repos\swe265p-reveng\swe265p-w2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC1E86E-246B-4501-AF1A-D9DBCC45F762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8B0231-4A9F-4EC3-AC54-49724C42B336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="142">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -545,6 +545,118 @@
   </si>
   <si>
     <t>Very tired</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenchia</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-8pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find an issue and submit our first pull request</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Found the issue and submitted the PR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>For beginners, Realm team has thoughtfully labeled some issues as "First-Good-Issue", which are relatively easy to deal with. And we found issue #1650 (https://github.com/realm/realm-java/issues/1650). We thought it was very simple because it just asked us to modify the toString method. However, things turned out to be harder.
+It asked us to update the toString method of a class named RealmProxy, which did not exist in the source code. We failed to find RealmProxy.java and we had no idea why. But we did find something similar called "RealmProxyClassGenerator.kt". Inferring from its name we could tell RealmProxy was likely to be generated by this generator. Here are two problems that we encountered:
+1. This generator was written in Kotlin, a language that we knew little about.
+2. This generator wrote Java source code. That is, the code that wrote code. This was amazing because we had never met this pattern before.
+Since this issue was started in 2015, we rolled back to the commit near that time. Surprisingly, at that time this RealmProxyClassGenerator was still written in Java. Then we checked the commit history of RealmProxyClassGenerator and found that it was converted to Kotlin on May 22, 2019. We first examined the Java version of this generator and understood its basic stucture. What we had to modify was the emitToStringMethod.
+We first wrote Java code and then converted it to Kotlin version, and finally added it to RealmProxyClassGenerator.kt.
+After all these efforts, I feel that an issue that seems simple can still be difficult because of the complexity of the system itself. We should never underestimate the difficulty of any issue.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Learn more KEPs;
+2. Learn about design patterns.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 KEPs learned:
+1. Invest now to save effort later;
+2. Socially embed and reinforce good practice;
+3. Use analogy.
+Learned design patterns from an example (Duck Simulator)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I strongly agree with the KEP "Invest now to save effort later", because I have similar past experience. I remember that when I was working on my graduation project for my undergrad degree, I wrote a section about how I selected technologies for the paper. At that time I was developing a WeChat mini program, which was like a HTML5 app. There were a lot of new frameworks for this besides the official toolkit. I spent some time researching the frameworks because the official one was not efficient.
+Also the Duck Simulator example was impressive and easy to understand. Later I found that on Head First Design Patterns and I wanted to read more.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Made progress but not finished. I did the social context part. Zihua did found some interesting PRs. And Wenchia did the issue part.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7pm-1am</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9pm-3am</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>All three of us worked on recovering the architecture. We produced a architecture diagram and explained it with a few paragraphs.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovering architecture is not an easy task because it requires domain specific knowledge. For a database like Realm, we have to know how database works first. We found a slide for CS222, where the architecture of a traditional database was clearly documented. We tried to gather evidence in realm-core to match this architecture.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>An interesting fact is that Realm is now acquired by MongoDB, for $39 million! It is amazing to see how expensive an open-source project can be.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish the draft of homework 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andre, Eric and Michael</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Review last week's homework;
+2. Learn 3 more KEPs;
+3. Learn about testing;
+4. Learn from guests.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-9pm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Head First Design Patterns</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Chapter 1 of the book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>This book was interesting because it has code with annotations. It started with the SimUDuck app and provided details about actual problems and solutions, making it easily acceptable and understandable.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the test cases of jpacman4 and took notes on the whiteboard. Learned importance of reading test cases.
+Participated in guest lecture.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric and Michael were very passionate, and funny. When the code was first printed on the screen, I thought it looked like JavaScript because it used "require", which was the keyword that NodeJS used for importing library. But there were also something strange like "local" and "if...then...end", then I was sure that was not any language I had met before. The answer was Lua. I saw the word Lua sometimes in game development or hardware environment, but did not know its syntax. Now I know Lua can run on this device HackRF One to write Software Defined Radio which is really cool. It is like a programmable wireless toolbox.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1077,12 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2819" topLeftCell="A26" activePane="bottomLeft"/>
-      <selection sqref="A1:G2"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1202,7 @@
     <col min="3" max="3" width="26.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="41.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="46.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="112.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="25" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
@@ -1152,7 +1262,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1275,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1174,7 +1284,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1183,7 +1293,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="51.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1689,59 +1799,143 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>20200225</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>20200226</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="153.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>20200227</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="153.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>20200229</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>20200304</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="186.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>20200305</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -2454,32 +2648,32 @@
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="11"/>
+    <row r="116" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
@@ -2525,6 +2719,33 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
